--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/96/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/96/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9619619619619619</v>
+        <v>0.685968596859686</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>546.5465465465466</v>
+        <v>150.5450545054505</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.06196196196196196</v>
+        <v>0.06743674367436744</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2672672672672672</v>
+        <v>0.2242224222422242</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1373.373373373373</v>
+        <v>1618.061806180618</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>601.6016016016016</v>
+        <v>491.4491449144915</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>237.2372372372373</v>
+        <v>290.7389738973897</v>
       </c>
     </row>
   </sheetData>
